--- a/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/Checklist - Trama.xlsx
+++ b/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/Checklist - Trama.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a11b600c829974/Documentos/GitHub/PUCPR/4Periodo/QualidadeDeSoftware/Projeto Final/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1095" documentId="8_{04329D57-3974-4948-8105-75AD99DB5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{270A1949-8FBA-4FD7-A1F7-02C61FC11C03}"/>
+  <xr:revisionPtr revIDLastSave="1225" documentId="8_{04329D57-3974-4948-8105-75AD99DB5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88C0107-3CA3-4C0A-B5F0-ED004EE58E17}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECEC2B2A-E839-4172-9AB4-40FC28EB27D8}"/>
   </bookViews>
@@ -36,24 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Seção</t>
+  </si>
   <si>
     <t>Descrição</t>
   </si>
   <si>
+    <t>Resultado (SIM / NÃO / N/A)</t>
+  </si>
+  <si>
     <t>Responsável</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Gravidade</t>
   </si>
   <si>
     <t>Prazo de Resolução</t>
   </si>
   <si>
-    <t>Seção</t>
-  </si>
-  <si>
-    <t>Resultado (SIM / NÃO / N/A)</t>
+    <t>Tempo de Resolução</t>
+  </si>
+  <si>
+    <t>Aderência</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>O nome do projeto foi definido?</t>
+  </si>
+  <si>
+    <t>Simples</t>
+  </si>
+  <si>
+    <t>30 minutos</t>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>Contém a versão do plano de teste?</t>
   </si>
   <si>
     <t>Não se Aplica</t>
@@ -62,6 +89,9 @@
     <t>Tempo para Concluir</t>
   </si>
   <si>
+    <t>Total de Perguntas</t>
+  </si>
+  <si>
     <t>Sim</t>
   </si>
   <si>
@@ -71,129 +101,105 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Aderência</t>
+    <t>Histórico de Revisão</t>
   </si>
   <si>
     <t>Média</t>
   </si>
   <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Contém as datas de todas as revisões?</t>
+  </si>
+  <si>
+    <t>Contém o versionamento das revisões?</t>
+  </si>
+  <si>
+    <t>Complexa</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>Contém a descrição de todas revisões?</t>
+  </si>
+  <si>
+    <t>Contém o autor de todas revisões?</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Contém descrição do propósito do plano de testes?</t>
+  </si>
+  <si>
+    <t>Escopo</t>
+  </si>
+  <si>
+    <t>O documento está descrevendo o que será testado?</t>
+  </si>
+  <si>
+    <t>O documento está descrevendo o que não será testado?</t>
+  </si>
+  <si>
+    <t>Abordagem</t>
+  </si>
+  <si>
     <t>Tecnicas e estratégias de testes a serem utilizadas estão descritas?</t>
   </si>
   <si>
-    <t>Simples</t>
-  </si>
-  <si>
-    <t>Complexa</t>
-  </si>
-  <si>
-    <t>1 hora</t>
-  </si>
-  <si>
-    <t>Histórico de Revisão</t>
-  </si>
-  <si>
-    <t>Planejamento</t>
+    <t>Critérios</t>
+  </si>
+  <si>
+    <t>Os critérios que determinarão se o software passou ou não nos testes estão definidos?</t>
+  </si>
+  <si>
+    <t>Documentos de Referência</t>
+  </si>
+  <si>
+    <t>A lista dos documentos usados para criar o plano de teste está descrita?</t>
+  </si>
+  <si>
+    <t>Ambiente de Teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contém os elementos de software necessários para execução do plano de teste? </t>
+  </si>
+  <si>
+    <t>Contém as versão dos elementos de software usados para a execução do plano de teste?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contém tipo e outras observações dos elementos de software? </t>
+  </si>
+  <si>
+    <t>Processo Adotado</t>
+  </si>
+  <si>
+    <t>Contém a representação gráfica do processo de teste escolhido para execução do plano de teste?</t>
+  </si>
+  <si>
+    <t>Componentes</t>
+  </si>
+  <si>
+    <t>Contem as funcionalidades a serem testadas?</t>
+  </si>
+  <si>
+    <t>Contém os tipos de teste a serem realizados?</t>
+  </si>
+  <si>
+    <t>Contem as tecnicas a serem utilizadas nos testes?</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
   </si>
   <si>
     <t>Os milestones do projeto estão claramente definidos e incluídos no plano de teste?</t>
   </si>
   <si>
-    <t>Objetivo</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Escopo</t>
-  </si>
-  <si>
-    <t>Abordagem</t>
-  </si>
-  <si>
-    <t>Critérios</t>
-  </si>
-  <si>
-    <t>Versão</t>
-  </si>
-  <si>
-    <t>Componentes</t>
-  </si>
-  <si>
-    <t>O nome do projeto foi definido?</t>
-  </si>
-  <si>
-    <t>Contém a versão do plano de teste?</t>
-  </si>
-  <si>
-    <t>Contém o versionamento das revisões?</t>
-  </si>
-  <si>
-    <t>Contém a descrição de todas revisões?</t>
-  </si>
-  <si>
-    <t>Contém as datas de todas as revisões?</t>
-  </si>
-  <si>
-    <t>Contém o autor de todas revisões?</t>
-  </si>
-  <si>
-    <t>Contém descrição do propósito do plano de testes?</t>
-  </si>
-  <si>
-    <t>O documento está descrevendo o que será testado?</t>
-  </si>
-  <si>
-    <t>O documento está descrevendo o que não será testado?</t>
-  </si>
-  <si>
-    <t>Os critérios que determinarão se o software passou ou não nos testes estão definidos?</t>
-  </si>
-  <si>
-    <t>Documentos de Referência</t>
-  </si>
-  <si>
-    <t>Ambiente de Teste</t>
-  </si>
-  <si>
-    <t>Processo Adotado</t>
-  </si>
-  <si>
-    <t>A lista dos documentos usados para criar o plano de teste está descrita?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contém os elementos de software necessários para execução do plano de teste? </t>
-  </si>
-  <si>
-    <t>Contém as versão dos elementos de software usados para a execução do plano de teste?</t>
-  </si>
-  <si>
-    <t>O Cronograma está com todas as colunas preenchidas?</t>
-  </si>
-  <si>
-    <t>O Ambiente de Teste está com todas as colunas preenchidas?</t>
-  </si>
-  <si>
-    <t>O Histórico de Revisão está com todas as colunas preenchidas?</t>
-  </si>
-  <si>
-    <t>Cronograma</t>
-  </si>
-  <si>
-    <t>Contem as funcionalidades a serem testadas?</t>
-  </si>
-  <si>
-    <t>Contém os tipos de teste a serem realizados?</t>
-  </si>
-  <si>
-    <t>Contem as tecnicas a serem utilizadas nos testes?</t>
-  </si>
-  <si>
-    <t>Contém a representação gráfica do processo de teste escolhido para execução do plano de teste?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contém tipo e outras observações dos elementos de software? </t>
-  </si>
-  <si>
     <t>Contém as datas de inicio referentes aos milestones do projeto?</t>
   </si>
   <si>
@@ -203,28 +209,23 @@
     <t>Contém o responsável referente aos milestones do projeto?</t>
   </si>
   <si>
-    <t>Gravidade</t>
-  </si>
-  <si>
-    <t>2 horas</t>
-  </si>
-  <si>
-    <t>30 min</t>
-  </si>
-  <si>
-    <t>Tempo de Resolução</t>
-  </si>
-  <si>
-    <t>30 minutos</t>
-  </si>
-  <si>
-    <t>Total de Perguntas</t>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Dimitri Prudente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +249,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +268,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -454,11 +467,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,14 +671,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,28 +1032,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA19F79-611A-4B64-B6A1-E718984910D3}">
-  <dimension ref="A1:AP34"/>
+  <dimension ref="A1:AP1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="48" style="9" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="29" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="66" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
@@ -1020,57 +1066,58 @@
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="63"/>
+        <v>11</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -1086,75 +1133,84 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="63"/>
+        <v>11</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L3" s="60"/>
       <c r="M3" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
-        <v>26</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="N4" s="2">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
       <c r="Q4" s="59">
         <f>N4 / (M4 - P4)</f>
-        <v>0</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1162,24 +1218,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="63"/>
+        <v>11</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,24 +1244,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="63"/>
+        <v>11</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="12"/>
@@ -1217,18 +1275,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="67">
+        <v>45600.820833333331</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="T7" s="24"/>
       <c r="U7" s="25"/>
@@ -1238,18 +1303,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="63"/>
+        <v>22</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="14"/>
@@ -1259,18 +1325,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="63"/>
+        <v>22</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="14"/>
@@ -1280,18 +1347,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="63"/>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T10" s="16"/>
       <c r="U10" s="14"/>
@@ -1301,18 +1369,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="63"/>
+        <v>27</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="T11" s="16"/>
       <c r="U11" s="23"/>
@@ -1322,18 +1391,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="T12" s="18"/>
       <c r="U12" s="39"/>
@@ -1343,18 +1413,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="63"/>
+        <v>22</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O13" s="27"/>
       <c r="P13" s="57"/>
@@ -1369,18 +1440,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="30"/>
@@ -1399,18 +1471,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="63"/>
+        <v>22</v>
+      </c>
+      <c r="G15" s="67"/>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="26"/>
@@ -1429,18 +1503,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="63"/>
+        <v>11</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="O16" s="27"/>
       <c r="P16" s="11"/>
@@ -1455,18 +1530,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="63"/>
+        <v>27</v>
+      </c>
+      <c r="G17" s="67"/>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O17" s="27"/>
       <c r="P17" s="11"/>
@@ -1481,18 +1558,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="63"/>
+        <v>22</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="56"/>
@@ -1507,18 +1585,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="63"/>
+        <v>11</v>
+      </c>
+      <c r="G19" s="67"/>
       <c r="H19" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="56"/>
@@ -1533,18 +1613,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="63"/>
+        <v>22</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O20" s="27"/>
       <c r="P20" s="56"/>
@@ -1559,18 +1640,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="63"/>
+        <v>27</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="11"/>
@@ -1606,18 +1688,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="63"/>
+        <v>11</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="56"/>
@@ -1653,18 +1736,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="10"/>
@@ -1679,18 +1763,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>57</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="63"/>
+        <v>11</v>
+      </c>
+      <c r="G24" s="67"/>
       <c r="H24" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="51"/>
@@ -1701,23 +1787,6 @@
       <c r="U24" s="49"/>
     </row>
     <row r="25" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O25" s="38"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="12"/>
@@ -1727,23 +1796,6 @@
       <c r="U25" s="23"/>
     </row>
     <row r="26" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O26" s="46"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="43"/>
@@ -1753,23 +1805,6 @@
       <c r="U26" s="22"/>
     </row>
     <row r="27" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O27" s="38"/>
       <c r="P27" s="31"/>
       <c r="Q27" s="44"/>
@@ -1840,6 +1875,9 @@
     <row r="34" spans="11:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P34" s="27"/>
     </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048576" s="69"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:Q1"/>
